--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/WizardryGit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14386767-6959-D544-B22A-83B97496BE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85EAB52-C924-F941-8F80-ABA262142E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16900" xr2:uid="{94F93E24-CAB3-9D44-9574-68D718104394}"/>
+    <workbookView xWindow="0" yWindow="8920" windowWidth="28300" windowHeight="16900" xr2:uid="{94F93E24-CAB3-9D44-9574-68D718104394}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spell</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D930ED76-8C60-DE4C-9014-B76584D1B36F}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -445,6 +449,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
